--- a/main/ig/StructureDefinition-treatment-day-number.xlsx
+++ b/main/ig/StructureDefinition-treatment-day-number.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:35:47+00:00</t>
+    <t>2024-03-25T10:33:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-treatment-day-number.xlsx
+++ b/main/ig/StructureDefinition-treatment-day-number.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:33:32+00:00</t>
+    <t>2024-03-25T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-treatment-day-number.xlsx
+++ b/main/ig/StructureDefinition-treatment-day-number.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:35:41+00:00</t>
+    <t>2024-03-27T13:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-treatment-day-number.xlsx
+++ b/main/ig/StructureDefinition-treatment-day-number.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T13:32:11+00:00</t>
+    <t>2024-03-27T14:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-treatment-day-number.xlsx
+++ b/main/ig/StructureDefinition-treatment-day-number.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:50:30+00:00</t>
+    <t>2024-03-29T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/main/ig/StructureDefinition-treatment-day-number.xlsx
+++ b/main/ig/StructureDefinition-treatment-day-number.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:41:33+00:00</t>
+    <t>2024-03-29T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-treatment-day-number.xlsx
+++ b/main/ig/StructureDefinition-treatment-day-number.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:47:24+00:00</t>
+    <t>2024-04-18T13:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/main/ig/StructureDefinition-treatment-day-number.xlsx
+++ b/main/ig/StructureDefinition-treatment-day-number.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T13:54:15+00:00</t>
+    <t>2024-06-11T08:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>valueInteger</t>
+  </si>
+  <si>
+    <t>The day number of the chemotherapy treatment.</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1369,7 @@
         <v>101</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="M7" t="s" s="2">
         <v>103</v>
